--- a/prelim/PPI Info (Qatar).xlsx
+++ b/prelim/PPI Info (Qatar).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t xml:space="preserve">iso2c</t>
   </si>
@@ -781,6 +781,9 @@
     <t xml:space="preserve">borders.border</t>
   </si>
   <si>
+    <t xml:space="preserve">Borders</t>
+  </si>
+  <si>
     <t xml:space="preserve">national</t>
   </si>
   <si>
@@ -89828,9 +89831,11 @@
       <c r="C2" t="s">
         <v>254</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>255</v>
+      </c>
       <c r="E2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -90320,9 +90325,11 @@
       <c r="C3" t="s">
         <v>254</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>255</v>
+      </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -90810,13 +90817,13 @@
         <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -91304,13 +91311,13 @@
         <v>253</v>
       </c>
       <c r="C5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" t="s">
         <v>257</v>
-      </c>
-      <c r="D5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" t="s">
-        <v>256</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -91798,13 +91805,13 @@
         <v>253</v>
       </c>
       <c r="C6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -92292,13 +92299,13 @@
         <v>253</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -92786,13 +92793,13 @@
         <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F8" t="n">
         <v>0.5</v>
@@ -93280,13 +93287,13 @@
         <v>253</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -93774,13 +93781,13 @@
         <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -94268,13 +94275,13 @@
         <v>253</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -94762,13 +94769,13 @@
         <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -95256,13 +95263,13 @@
         <v>253</v>
       </c>
       <c r="C13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -95750,13 +95757,13 @@
         <v>253</v>
       </c>
       <c r="C14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -96244,13 +96251,13 @@
         <v>253</v>
       </c>
       <c r="C15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -96738,13 +96745,13 @@
         <v>253</v>
       </c>
       <c r="C16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -97232,13 +97239,13 @@
         <v>253</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -97726,13 +97733,13 @@
         <v>253</v>
       </c>
       <c r="C18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -98220,13 +98227,13 @@
         <v>253</v>
       </c>
       <c r="C19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -98714,13 +98721,13 @@
         <v>253</v>
       </c>
       <c r="C20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -99208,13 +99215,13 @@
         <v>253</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -99702,13 +99709,13 @@
         <v>253</v>
       </c>
       <c r="C22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -100196,13 +100203,13 @@
         <v>253</v>
       </c>
       <c r="C23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -100690,13 +100697,13 @@
         <v>253</v>
       </c>
       <c r="C24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -101184,13 +101191,13 @@
         <v>253</v>
       </c>
       <c r="C25" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D25" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -101678,13 +101685,13 @@
         <v>253</v>
       </c>
       <c r="C26" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -102172,13 +102179,13 @@
         <v>253</v>
       </c>
       <c r="C27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -102666,13 +102673,13 @@
         <v>253</v>
       </c>
       <c r="C28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -103160,13 +103167,13 @@
         <v>253</v>
       </c>
       <c r="C29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D29" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -103654,13 +103661,13 @@
         <v>253</v>
       </c>
       <c r="C30" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E30" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -104148,13 +104155,13 @@
         <v>253</v>
       </c>
       <c r="C31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
